--- a/var_info/indv_panel_var_info/ULMS_VariableInfo.xlsx
+++ b/var_info/indv_panel_var_info/ULMS_VariableInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/TSRP/var_info/indv_panel_var_info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/temprisk/var_info/indv_panel_var_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7520D1F-6D69-4D43-9937-DC9646FD1A91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3899BF-EC56-DE4C-8FAE-71D5D1946F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17060" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="21600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measures" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,16 @@
     <sheet name="PanelInfo" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Dems!$A$1:$O$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ID!$A$1:$O$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$O$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Dems!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ID!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$P$76</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="190">
   <si>
     <t>ord</t>
   </si>
@@ -597,6 +597,9 @@
   </si>
   <si>
     <t>Lifespan</t>
+  </si>
+  <si>
+    <t>item_num</t>
   </si>
 </sst>
 </file>
@@ -1446,11 +1449,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:P76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1460,7 +1463,7 @@
     <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1504,10 +1507,13 @@
         <v>16</v>
       </c>
       <c r="O1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1541,8 +1547,11 @@
       <c r="K2">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1576,8 +1585,11 @@
       <c r="K3">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1608,8 +1620,11 @@
       <c r="K4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1640,8 +1655,11 @@
       <c r="K5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1672,8 +1690,11 @@
       <c r="K6">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1704,8 +1725,11 @@
       <c r="K7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1739,8 +1763,11 @@
       <c r="N8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1774,8 +1801,11 @@
       <c r="N9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1809,8 +1839,11 @@
       <c r="N10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1844,8 +1877,11 @@
       <c r="N11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1879,8 +1915,11 @@
       <c r="N12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1914,8 +1953,11 @@
       <c r="N13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1949,8 +1991,11 @@
       <c r="N14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1984,8 +2029,11 @@
       <c r="N15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -2019,8 +2067,11 @@
       <c r="N16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -2054,8 +2105,11 @@
       <c r="N17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -2089,8 +2143,11 @@
       <c r="N18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -2124,8 +2181,11 @@
       <c r="N19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -2159,8 +2219,11 @@
       <c r="N20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -2194,8 +2257,11 @@
       <c r="N21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -2229,8 +2295,11 @@
       <c r="N22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -2264,8 +2333,11 @@
       <c r="N23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -2299,8 +2371,11 @@
       <c r="N24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -2334,8 +2409,11 @@
       <c r="N25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -2369,8 +2447,11 @@
       <c r="N26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -2404,8 +2485,11 @@
       <c r="N27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="O27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -2439,8 +2523,11 @@
       <c r="N28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="O28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -2474,8 +2561,11 @@
       <c r="N29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -2509,8 +2599,11 @@
       <c r="N30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="O30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2544,8 +2637,11 @@
       <c r="N31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="O31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2579,8 +2675,11 @@
       <c r="N32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="O32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -2614,8 +2713,11 @@
       <c r="N33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="O33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -2646,8 +2748,11 @@
       <c r="K34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="O34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -2678,8 +2783,11 @@
       <c r="K35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="O35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -2710,8 +2818,11 @@
       <c r="K36">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="O36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -2742,8 +2853,11 @@
       <c r="K37">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="O37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -2777,8 +2891,11 @@
       <c r="K38">
         <v>30</v>
       </c>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="O38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -2812,8 +2929,11 @@
       <c r="K39">
         <v>30</v>
       </c>
-    </row>
-    <row r="40" spans="1:14">
+      <c r="O39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -2844,8 +2964,11 @@
       <c r="K40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:14">
+      <c r="O40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -2876,8 +2999,11 @@
       <c r="K41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:14">
+      <c r="O41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -2908,8 +3034,11 @@
       <c r="K42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:14">
+      <c r="O42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -2940,8 +3069,11 @@
       <c r="K43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:14">
+      <c r="O43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
         <v>30</v>
       </c>
@@ -2972,8 +3104,11 @@
       <c r="K44">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:14">
+      <c r="O44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -3004,8 +3139,11 @@
       <c r="K45">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:14">
+      <c r="O45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
         <v>30</v>
       </c>
@@ -3036,8 +3174,11 @@
       <c r="K46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:14">
+      <c r="O46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
         <v>30</v>
       </c>
@@ -3068,8 +3209,11 @@
       <c r="K47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:14">
+      <c r="O47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
         <v>30</v>
       </c>
@@ -3100,8 +3244,11 @@
       <c r="K48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="O48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
         <v>30</v>
       </c>
@@ -3132,8 +3279,11 @@
       <c r="K49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="O49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
         <v>30</v>
       </c>
@@ -3164,8 +3314,11 @@
       <c r="K50">
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="O50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -3196,8 +3349,11 @@
       <c r="K51">
         <v>7</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="O51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -3228,8 +3384,11 @@
       <c r="K52">
         <v>7</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="O52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" t="s">
         <v>30</v>
       </c>
@@ -3260,8 +3419,11 @@
       <c r="K53">
         <v>7</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="O53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" t="s">
         <v>30</v>
       </c>
@@ -3292,8 +3454,11 @@
       <c r="J54">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="O54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" t="s">
         <v>30</v>
       </c>
@@ -3324,8 +3489,11 @@
       <c r="J55">
         <v>11</v>
       </c>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="O55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" t="s">
         <v>30</v>
       </c>
@@ -3356,8 +3524,11 @@
       <c r="J56">
         <v>11</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="O56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" t="s">
         <v>30</v>
       </c>
@@ -3388,8 +3559,11 @@
       <c r="J57">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="O57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
         <v>30</v>
       </c>
@@ -3420,8 +3594,11 @@
       <c r="J58">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="O58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" t="s">
         <v>30</v>
       </c>
@@ -3452,8 +3629,11 @@
       <c r="J59">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="O59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" t="s">
         <v>30</v>
       </c>
@@ -3490,8 +3670,11 @@
       <c r="M60" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="O60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" t="s">
         <v>30</v>
       </c>
@@ -3528,8 +3711,11 @@
       <c r="M61" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="O61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" t="s">
         <v>30</v>
       </c>
@@ -3560,8 +3746,11 @@
       <c r="J62">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="O62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" t="s">
         <v>30</v>
       </c>
@@ -3592,8 +3781,11 @@
       <c r="J63">
         <v>11</v>
       </c>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="O63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" t="s">
         <v>30</v>
       </c>
@@ -3624,8 +3816,11 @@
       <c r="J64">
         <v>11</v>
       </c>
-    </row>
-    <row r="65" spans="1:14">
+      <c r="O64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" t="s">
         <v>30</v>
       </c>
@@ -3656,8 +3851,11 @@
       <c r="J65">
         <v>11</v>
       </c>
-    </row>
-    <row r="66" spans="1:14">
+      <c r="O65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" t="s">
         <v>30</v>
       </c>
@@ -3688,8 +3886,11 @@
       <c r="J66">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="1:14">
+      <c r="O66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" t="s">
         <v>30</v>
       </c>
@@ -3720,8 +3921,11 @@
       <c r="J67">
         <v>11</v>
       </c>
-    </row>
-    <row r="68" spans="1:14">
+      <c r="O67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" t="s">
         <v>30</v>
       </c>
@@ -3752,8 +3956,11 @@
       <c r="K68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:14">
+      <c r="O68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" t="s">
         <v>30</v>
       </c>
@@ -3784,8 +3991,11 @@
       <c r="K69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:14">
+      <c r="O69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" t="s">
         <v>30</v>
       </c>
@@ -3816,8 +4026,11 @@
       <c r="K70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:14">
+      <c r="O70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" t="s">
         <v>30</v>
       </c>
@@ -3851,8 +4064,11 @@
       <c r="N71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:14">
+      <c r="O71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" t="s">
         <v>30</v>
       </c>
@@ -3886,8 +4102,11 @@
       <c r="N72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:14">
+      <c r="O72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" t="s">
         <v>30</v>
       </c>
@@ -3921,8 +4140,11 @@
       <c r="N73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:14">
+      <c r="O73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" t="s">
         <v>30</v>
       </c>
@@ -3956,8 +4178,11 @@
       <c r="N74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:14">
+      <c r="O74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" t="s">
         <v>30</v>
       </c>
@@ -3991,8 +4216,11 @@
       <c r="N75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:14">
+      <c r="O75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" t="s">
         <v>30</v>
       </c>
@@ -4024,6 +4252,9 @@
         <v>5</v>
       </c>
       <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76">
         <v>1</v>
       </c>
     </row>
@@ -4034,10 +4265,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O118"/>
+  <dimension ref="A1:P118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4046,7 +4277,7 @@
     <col min="5" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -4090,10 +4321,13 @@
         <v>16</v>
       </c>
       <c r="O1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -4109,11 +4343,11 @@
       <c r="E2" t="s">
         <v>144</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -4129,11 +4363,11 @@
       <c r="E3" t="s">
         <v>145</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -4149,11 +4383,11 @@
       <c r="E4" t="s">
         <v>144</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -4169,11 +4403,11 @@
       <c r="E5" t="s">
         <v>145</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -4189,11 +4423,11 @@
       <c r="E6" t="s">
         <v>144</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -4209,11 +4443,11 @@
       <c r="E7" t="s">
         <v>145</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -4229,11 +4463,11 @@
       <c r="E8" t="s">
         <v>144</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -4249,11 +4483,11 @@
       <c r="E9" t="s">
         <v>145</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -4269,11 +4503,11 @@
       <c r="E10" t="s">
         <v>163</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -4289,11 +4523,11 @@
       <c r="E11" t="s">
         <v>164</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -4309,11 +4543,11 @@
       <c r="E12" t="s">
         <v>144</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="17">
+    <row r="13" spans="1:16" ht="17">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -4329,11 +4563,11 @@
       <c r="E13" t="s">
         <v>145</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -4349,7 +4583,7 @@
       <c r="E14" t="s">
         <v>163</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4516,10 +4750,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4527,7 +4761,7 @@
     <col min="3" max="3" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -4571,10 +4805,13 @@
         <v>16</v>
       </c>
       <c r="O1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -4590,11 +4827,11 @@
       <c r="E2" t="s">
         <v>162</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -4610,11 +4847,11 @@
       <c r="E3" t="s">
         <v>150</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -4630,11 +4867,11 @@
       <c r="E4" t="s">
         <v>162</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -4650,11 +4887,11 @@
       <c r="E5" t="s">
         <v>150</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -4670,11 +4907,11 @@
       <c r="E6" t="s">
         <v>162</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -4690,11 +4927,11 @@
       <c r="E7" t="s">
         <v>150</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -4710,11 +4947,11 @@
       <c r="E8" t="s">
         <v>162</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -4730,7 +4967,7 @@
       <c r="E9" t="s">
         <v>150</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4741,10 +4978,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4753,7 +4990,7 @@
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -4797,10 +5034,13 @@
         <v>16</v>
       </c>
       <c r="O1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -4816,11 +5056,11 @@
       <c r="E2" t="s">
         <v>155</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -4836,11 +5076,11 @@
       <c r="E3" t="s">
         <v>156</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -4856,11 +5096,11 @@
       <c r="E4" t="s">
         <v>155</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -4876,11 +5116,11 @@
       <c r="E5" t="s">
         <v>156</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -4896,11 +5136,11 @@
       <c r="E6" t="s">
         <v>155</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -4916,11 +5156,11 @@
       <c r="E7" t="s">
         <v>156</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -4936,11 +5176,11 @@
       <c r="E8" t="s">
         <v>155</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -4956,11 +5196,11 @@
       <c r="E9" t="s">
         <v>156</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="17">
+    <row r="16" spans="1:16" ht="17">
       <c r="F16" s="1"/>
     </row>
   </sheetData>
@@ -4970,10 +5210,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4981,7 +5221,7 @@
     <col min="2" max="2" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -5025,6 +5265,9 @@
         <v>16</v>
       </c>
       <c r="O1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5037,7 +5280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74DDFD9B-3848-AC4B-B596-7047C10BB2BE}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
